--- a/KUPT6BA1.xlsx
+++ b/KUPT6BA1.xlsx
@@ -17,7 +17,7 @@
     <t xml:space="preserve">Semaine : </t>
   </si>
   <si>
-    <t>samedi</t>
+    <t>mercredi</t>
   </si>
   <si>
     <t>Gest. De Projets - PJ (KUPT6BA1) /PJ</t>
@@ -35,13 +35,13 @@
     <t>TYPE_PROJET</t>
   </si>
   <si>
-    <t>lundi</t>
+    <t>vendredi</t>
   </si>
   <si>
     <t>15:45</t>
   </si>
   <si>
-    <t>vendredi</t>
+    <t>mardi</t>
   </si>
 </sst>
 </file>
@@ -104,7 +104,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="1">
-        <v>44968.0</v>
+        <v>46064.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>1</v>
@@ -143,7 +143,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n" s="1">
-        <v>44977.0</v>
+        <v>46073.0</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>7</v>
@@ -205,7 +205,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n" s="1">
-        <v>44995.0</v>
+        <v>46091.0</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>9</v>
@@ -236,7 +236,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n" s="1">
-        <v>44996.0</v>
+        <v>46092.0</v>
       </c>
       <c r="B11" t="s" s="0">
         <v>1</v>
@@ -275,7 +275,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n" s="1">
-        <v>45009.0</v>
+        <v>46105.0</v>
       </c>
       <c r="B14" t="s" s="0">
         <v>9</v>
@@ -306,7 +306,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n" s="1">
-        <v>45012.0</v>
+        <v>46108.0</v>
       </c>
       <c r="B16" t="s" s="0">
         <v>7</v>
